--- a/visualization/counts.xlsx
+++ b/visualization/counts.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mosquito" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bird" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>American Crow</t>
+          <t>Culex quinquefasciatus</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">American Crow  </t>
+          <t>Culex pipiens</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Culex quinquefasciatus</t>
+          <t>Culex restuans</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Culex pipiens</t>
+          <t>Culex quinq.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Culex restuans</t>
+          <t>Culex. pipiens</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CA Scrub-Jay</t>
+          <t>Culex sp.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blue Jay  </t>
+          <t>Culex. PIPIENS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">American White Pelican  </t>
+          <t>Cs. melanura</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Culex quinq.</t>
+          <t>Culex salinarius</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>human- plasma</t>
+          <t>Culex. tarsalis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yellow-billed Magpie</t>
+          <t>CPG</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Crow</t>
+          <t>Culex pipiens/restuans</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Culex. pipiens</t>
+          <t>Culex stigmatosoma</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Western Scrub-Jay</t>
+          <t>Culex. Pipiens</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>House Finch</t>
+          <t>Culex. TARSALIS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>House Sparrow</t>
+          <t xml:space="preserve">Culex quinquefasciatus </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Culex. PIPIENS</t>
+          <t>Cs. morsitans</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Culex sp.</t>
+          <t>Ae. cinereus</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hawk</t>
+          <t>Culex. Tarsalis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great Horned Owl  </t>
+          <t>Culex erythrothorax</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Culex salinarius</t>
+          <t>Cq. perturbans</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cs. melanura</t>
+          <t xml:space="preserve">Culex pipiens </t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Culex. tarsalis</t>
+          <t>Ps. ferox</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>American Robin</t>
+          <t>Culex erraticus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sharp-shinned hawk</t>
+          <t>Oc. canadensis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +790,393 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Mosquito</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>American Crow</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">American Crow  </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CA Scrub-Jay</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blue Jay  </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">American White Pelican  </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yellow-billed Magpie</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Western Scrub-Jay</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>House Finch</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>House Sparrow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hawk</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great Horned Owl  </t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>American Robin</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sharp-shinned hawk</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Western Scrub Jay</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Red-headed Tanager  </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Least Tern  </t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Raven</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Northern Mockingbird</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">American Kestrel  </t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bluejay</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Canada Goose</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Double-crested Cormorant</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Red-shouldered Hawk</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Magpie</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">House Sparrow  </t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Swainson's Hawk</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +1185,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Culex pipiens/restuans</t>
+          <t>Sparrow</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +1198,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CPG</t>
+          <t>Ring-billed Gull</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +1211,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Red-headed Tanager  </t>
+          <t>American crow</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +1224,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Culex stigmatosoma</t>
+          <t>Brewer's Blackbird</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +1237,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Least Tern  </t>
+          <t>Black-headed Grosbeak</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +1250,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Great-tailed Grackle</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +1263,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Northern Mockingbird</t>
+          <t>Piping Plover</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +1276,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Double-crested Cormorant</t>
+          <t>Lorii</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +1289,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Canada Goose</t>
+          <t>Mourning dove</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +1302,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Red-shouldered Hawk</t>
+          <t>Merlin</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +1315,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bluejay</t>
+          <t>blue jay</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +1328,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">American Kestrel  </t>
+          <t xml:space="preserve">American Robin  </t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +1341,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Flamingo</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +1354,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +1367,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Black-headed Grosbeak</t>
+          <t>Red-tailed hawk</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +1380,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sparrow</t>
+          <t xml:space="preserve">Bald Eagle  </t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1393,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Swainson's Hawk</t>
+          <t xml:space="preserve">Black-billed Magpie  </t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1406,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">House Sparrow  </t>
+          <t>Common Tern</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1419,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Brewer's Blackbird</t>
+          <t xml:space="preserve">Herring Gull  </t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1432,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>American crow</t>
+          <t>Ferruginous Hawk</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1445,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Culex. Pipiens</t>
+          <t>European Starling</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1458,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Culex. TARSALIS</t>
+          <t>Oak Titmouse</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1471,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ring-billed Gull</t>
+          <t>Cooper's Hawk</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1484,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culex quinquefasciatus </t>
+          <t>flamingo</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1497,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Culex. Tarsalis</t>
+          <t>Golden Eagle</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1510,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cs. morsitans</t>
+          <t>Mourning Dove</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1523,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Coopers Hawk</t>
+          <t>Mississippi Kite</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1536,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lorii</t>
+          <t xml:space="preserve">Northern Cardinal  </t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1549,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ae. cinereus</t>
+          <t>mourning dove</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1562,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Common Tern</t>
+          <t>Loris</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1575,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Flamingo</t>
+          <t>Blue Jay</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1588,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">American Robin  </t>
+          <t>Northern Goshawk</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1601,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Merlin</t>
+          <t xml:space="preserve">Northern Mockingbird  </t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1614,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Great-tailed Grackle</t>
+          <t>Pelican</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1627,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cq. perturbans</t>
+          <t>Catbird</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1640,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bald Eagle  </t>
+          <t>ruffed grouse</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1653,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Culex erythrothorax</t>
+          <t>Sanderling</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1666,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Black-billed Magpie  </t>
+          <t>Short-eared owl</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1679,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>blue jay</t>
+          <t>Short-eared Owl</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1692,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mourning dove</t>
+          <t>Snowy Owl</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1705,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Piping Plover</t>
+          <t xml:space="preserve">Spotted Sandpiper  </t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1718,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Red-tailed hawk</t>
+          <t>Common Grackle</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1348,7 +1731,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>European Starling</t>
+          <t>Black-capped Chickadee</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1361,7 +1744,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brewer's Blackbird  </t>
+          <t>CA condor</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1374,7 +1757,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Short-eared Owl</t>
+          <t>Brown Pelican</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1387,7 +1770,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Snowy Owl</t>
+          <t>Costa's Hummingbird</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1400,7 +1783,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cooper's Hawk</t>
+          <t>Unknown Bird</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1413,7 +1796,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Common Grackle</t>
+          <t>Warbler</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1426,7 +1809,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spotted Sandpiper  </t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1439,7 +1822,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CA condor</t>
+          <t>American Kestrel</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1452,7 +1835,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ferruginous Hawk</t>
+          <t>Common Raven</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1465,7 +1848,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Short-eared owl</t>
+          <t>Red-tailed Hawk</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1478,7 +1861,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>flamingo</t>
+          <t>Western Bluebird</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1491,7 +1874,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Golden Eagle</t>
+          <t>Cooper's hawk</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1504,7 +1887,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Herring Gull  </t>
+          <t>Allen's Hummingbird</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1517,7 +1900,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Jay</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1530,7 +1913,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sanderling</t>
+          <t>Jaybird</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1543,7 +1926,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Loris</t>
+          <t>Sharp-shinned Hawk</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1556,7 +1939,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mississippi Kite</t>
+          <t>grackle (Quiscalus quiscula)</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1569,7 +1952,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ruffed grouse</t>
+          <t>Quarterhorse</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1582,7 +1965,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fox squirrel</t>
+          <t>Grobbeak</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1595,7 +1978,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Northern Goshawk</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1608,7 +1991,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1621,7 +2004,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Northern Mockingbird  </t>
+          <t>Barn Swallow</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1634,7 +2017,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pelican</t>
+          <t>Black-crowned Night Heron</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1647,7 +2030,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>human- brain</t>
+          <t>Snowy Egret</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1660,7 +2043,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Brown Pelican</t>
+          <t>American Paint horse mix</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1673,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Western Bluebird</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1686,7 +2069,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Boat-tailed Grackle</t>
+          <t>Black Vulture</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1699,7 +2082,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>American Paint horse mix</t>
+          <t>Lesser Goldfinch</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1712,7 +2095,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Unknown Bird</t>
+          <t>Boat-tailed Grackle</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1725,7 +2108,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mourning Dove</t>
+          <t xml:space="preserve">Brewer's Blackbird  </t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1738,439 +2121,10 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lesser Goldfinch</t>
+          <t>Tree Swallow</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Costa's Hummingbird</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>American Kestrel</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Allen's Hummingbird</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>grackle (Quiscalus quiscula)</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Blue Jay</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Black-capped Chickadee</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Oak Titmouse</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Culex erraticus</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Ps. ferox</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Oc. canadensis</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Northern Cardinal  </t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>mourning dove</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Catbird</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Warbler</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Pheasant</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Common Raven</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Red-tailed Hawk</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Black Vulture</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Bald Eagle</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mosquito</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culex pipiens </t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Snowy Egret</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Black-crowned Night Heron</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Barn Swallow</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Barn Owl</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Quail</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Grobbeak</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Quarterhorse</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Sharp-shinned Hawk</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Jaybird</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Jay</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Cooper's hawk</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Tree Swallow</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/visualization/counts.xlsx
+++ b/visualization/counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynwang/Desktop/Princeton/West-Nile-Project/visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam/west/visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8087FCB-E05F-4C49-AF9D-2EE4E68FFB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6AB026-7312-0F45-90EA-8F3FD91F0ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="660" windowWidth="27500" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="660" windowWidth="27500" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mosquito" sheetId="1" r:id="rId1"/>
@@ -344,6 +344,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -389,13 +390,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="239" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="239" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1B5795-D548-E445-AB7E-E2807AC7635F}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="213" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -813,7 +813,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4">
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>90</v>
       </c>
       <c r="C5">
@@ -837,7 +837,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>91</v>
       </c>
       <c r="C6">
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>92</v>
       </c>
       <c r="C7">
@@ -853,7 +853,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>93</v>
       </c>
       <c r="C8">
@@ -861,7 +861,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>94</v>
       </c>
       <c r="C9">
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>95</v>
       </c>
       <c r="C10">
